--- a/output/fit_clients/fit_round_252.xlsx
+++ b/output/fit_clients/fit_round_252.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2035440344.620168</v>
+        <v>2507218920.405524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07899532385392349</v>
+        <v>0.0859795271079753</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02796467110775612</v>
+        <v>0.04314507223935041</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1017720172.693192</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2261784365.42468</v>
+        <v>1977814292.671885</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1815199383712383</v>
+        <v>0.1598619110251375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03968919686940963</v>
+        <v>0.03968212044975263</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1130892263.304609</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4265783871.731598</v>
+        <v>5011498664.251296</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1544675397814524</v>
+        <v>0.1179954120909373</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03747953173071183</v>
+        <v>0.03137440184609829</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2132891968.874582</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3127185774.34244</v>
+        <v>2964224516.901896</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07369641233810841</v>
+        <v>0.07172444508007463</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03649289876065159</v>
+        <v>0.05031657103630736</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1563592948.631237</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2769588730.393217</v>
+        <v>2334361472.2626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.133475353061176</v>
+        <v>0.1368790081326096</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03609628367216139</v>
+        <v>0.05391762415387524</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1384794311.494215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2133900754.809617</v>
+        <v>3010060157.658612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09473064382778257</v>
+        <v>0.09500894700792553</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04438062610754649</v>
+        <v>0.04233452745923718</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1066950425.647851</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2732359571.440368</v>
+        <v>2901568577.083819</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1438003708747617</v>
+        <v>0.1443487168677181</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03006410496098958</v>
+        <v>0.02730452658345836</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1366179815.864537</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1736810087.125371</v>
+        <v>1683156186.63542</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1553747122240432</v>
+        <v>0.1754383437002506</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0279126298166065</v>
+        <v>0.03403451823396549</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>868405106.6855016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5438461707.577462</v>
+        <v>4057264487.579937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1580437709118411</v>
+        <v>0.1385173043226239</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05217744915341922</v>
+        <v>0.03386299114654764</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>106</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2719230987.072989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3695407975.450779</v>
+        <v>4164178783.440277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1523407834030447</v>
+        <v>0.1587670521218413</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04629742933613544</v>
+        <v>0.04657491418892449</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>104</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1847703979.159149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2174940475.170737</v>
+        <v>2540174085.190065</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1635701424317324</v>
+        <v>0.1935703516192715</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04506638249674104</v>
+        <v>0.03292390051819628</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>84</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1087470180.050647</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3438680122.664505</v>
+        <v>3658992154.440753</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06446148782601017</v>
+        <v>0.06762967656140889</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02900363482093969</v>
+        <v>0.03110751054587471</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>84</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1719340144.757314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3637896009.448376</v>
+        <v>2928244551.600633</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1778319782959152</v>
+        <v>0.1549681815020712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03149666273194651</v>
+        <v>0.03547800029788788</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>83</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1818947992.971062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1583987067.583266</v>
+        <v>1183001406.503034</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07634833766854826</v>
+        <v>0.0806922668895183</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03995734952252193</v>
+        <v>0.04445912952301229</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>791993638.3263204</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1817611646.054753</v>
+        <v>1906747365.270581</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08185731093165537</v>
+        <v>0.07578767904761938</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04671279306472159</v>
+        <v>0.0332509570415919</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>908805914.7947176</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4222145197.831458</v>
+        <v>5248101910.11236</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1212858763247299</v>
+        <v>0.1653310190652558</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04922875144993653</v>
+        <v>0.03853129731086151</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>74</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2111072622.549586</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3121742209.9847</v>
+        <v>3109703186.618246</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1176809932950341</v>
+        <v>0.1398035001095712</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03027239679913885</v>
+        <v>0.02908931148378053</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>82</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1560871126.431703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1044397673.36928</v>
+        <v>957528411.4266497</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1480425446847879</v>
+        <v>0.1369875696857817</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0274493260960248</v>
+        <v>0.01705758895462888</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>522198876.7129274</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2704055465.416036</v>
+        <v>2533995429.114645</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1141151562768213</v>
+        <v>0.1513443703176759</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02089046337053684</v>
+        <v>0.03018463495636556</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1352027684.036966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2106426954.983924</v>
+        <v>1901586313.156556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07549529785330528</v>
+        <v>0.06945664132195618</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03470803286815638</v>
+        <v>0.03441146720502591</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1053213503.277676</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3386432590.738985</v>
+        <v>3003960047.51325</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1322825054938001</v>
+        <v>0.1362652220470701</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04973801760127048</v>
+        <v>0.05263401770504712</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1693216333.75391</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>953998243.3915693</v>
+        <v>1166261933.968685</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1219175259464406</v>
+        <v>0.1623277757244418</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05361357701067233</v>
+        <v>0.03682103263958379</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>476999199.6158993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3354972457.787029</v>
+        <v>2939733020.163205</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1054007034307802</v>
+        <v>0.1458914874512425</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02307307588118394</v>
+        <v>0.02697095188953114</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>74</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1677486240.251096</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1124853945.105731</v>
+        <v>1157564483.189671</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09079215223955299</v>
+        <v>0.07558922153613896</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02469885791982406</v>
+        <v>0.02956505617167943</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>562427007.8012748</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1036849740.849848</v>
+        <v>1368725143.350977</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09438586733116991</v>
+        <v>0.1246276437996174</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0258028110562264</v>
+        <v>0.03874337203750084</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>518424851.503417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4317192120.679425</v>
+        <v>4550318774.323334</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1104323970602249</v>
+        <v>0.1148551539329562</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02330711004486203</v>
+        <v>0.01747595937125603</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2158596054.75476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3160061619.320723</v>
+        <v>3549314310.383331</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1275238055225267</v>
+        <v>0.1474058945025541</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04997202392230186</v>
+        <v>0.03573905307195314</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1580030834.7568</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4576058606.909659</v>
+        <v>4849738920.542514</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1336780065606524</v>
+        <v>0.09602839957596739</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03065642697987443</v>
+        <v>0.03353456498117593</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>111</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2288029280.385438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1873252143.873228</v>
+        <v>1842544570.738525</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1041245326274126</v>
+        <v>0.1188345252895139</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02552159933607107</v>
+        <v>0.03657620618914633</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>936626094.9848865</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1475143922.359635</v>
+        <v>1079991869.800447</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1114677118889674</v>
+        <v>0.1081700083878795</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04580276146186084</v>
+        <v>0.03194202838548783</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>737571847.8607503</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1462855320.059371</v>
+        <v>1478528629.986954</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1122847159746739</v>
+        <v>0.1103812590913249</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03263467848013767</v>
+        <v>0.02985479529205196</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>731427720.6935487</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2377530797.563549</v>
+        <v>2229236963.660652</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1602264834383071</v>
+        <v>0.1282904806900095</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05315372337592742</v>
+        <v>0.0591426961637566</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1188765447.413988</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1039550629.806481</v>
+        <v>1191408682.97146</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09154495575865811</v>
+        <v>0.12191697771697</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02550163100508089</v>
+        <v>0.02640024561852694</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>519775346.2477151</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1213706568.072774</v>
+        <v>1334033694.520112</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1102572929035136</v>
+        <v>0.07259793510738743</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02904537435076644</v>
+        <v>0.03470073289435326</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>606853255.7622498</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2452669687.498874</v>
+        <v>2099339082.014283</v>
       </c>
       <c r="F36" t="n">
-        <v>0.156628016353963</v>
+        <v>0.1312678715599242</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02629894933415722</v>
+        <v>0.01974564315792812</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>63</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1226334869.489699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2308079345.190193</v>
+        <v>2016091144.276162</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09125172338798702</v>
+        <v>0.07657919563093801</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02574369418230558</v>
+        <v>0.03606003561279984</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1154039742.282757</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1472782296.004713</v>
+        <v>1594430251.139464</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1078676695433632</v>
+        <v>0.08907045245582039</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02494947250584634</v>
+        <v>0.02922760654414146</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>736391201.0935534</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1615680054.01745</v>
+        <v>1483639166.898546</v>
       </c>
       <c r="F39" t="n">
-        <v>0.157793744237675</v>
+        <v>0.1306546864060765</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02176789252310782</v>
+        <v>0.03209478914018921</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>807840079.8653439</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1607139777.266676</v>
+        <v>1535248931.27311</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1571326031351775</v>
+        <v>0.1572191078368839</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04746822645204418</v>
+        <v>0.0379077659859627</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>803569828.013327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2879099407.325106</v>
+        <v>2701099495.128438</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1387015730722168</v>
+        <v>0.1544601536425786</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04110614869710134</v>
+        <v>0.03345353324139824</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>60</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1439549691.785268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3460960486.367564</v>
+        <v>3830654159.578761</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08708188674285464</v>
+        <v>0.0790571834050325</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03581236111770574</v>
+        <v>0.04383570397990893</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>86</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1730480235.349084</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2542358201.488619</v>
+        <v>2712886081.232652</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1559625200159393</v>
+        <v>0.1968217309403071</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01649705180951662</v>
+        <v>0.02145877640509315</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>90</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1271179145.139879</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2328834482.702657</v>
+        <v>2219442416.2251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07326863232535041</v>
+        <v>0.06616877326284393</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03313174673881896</v>
+        <v>0.02368158830142192</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1164417413.287914</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2111884869.29704</v>
+        <v>2037060813.383329</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1864087923153665</v>
+        <v>0.1410328505721455</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05012016778749379</v>
+        <v>0.04846871364876596</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1055942436.769744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5501572369.42417</v>
+        <v>5562663428.381014</v>
       </c>
       <c r="F46" t="n">
-        <v>0.158130343663601</v>
+        <v>0.1576759893639842</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04045755031614219</v>
+        <v>0.04868691705579277</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>90</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2750786240.241131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3939556472.487275</v>
+        <v>3147697971.397591</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1279095485180771</v>
+        <v>0.1377118331141549</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04199077959247645</v>
+        <v>0.05519556834209009</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>67</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1969778231.950854</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3019923471.332682</v>
+        <v>3312270848.531222</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06683090603412124</v>
+        <v>0.1086876673767809</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02384160085773222</v>
+        <v>0.03196831199428129</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1509961826.974503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1383999079.182408</v>
+        <v>1777984475.044862</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1528528851159012</v>
+        <v>0.1889171844911545</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03536788823305347</v>
+        <v>0.03058523416325393</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>691999589.6525953</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3982245636.574425</v>
+        <v>3456901080.407016</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1226428149023749</v>
+        <v>0.1357847194329254</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04049834821827159</v>
+        <v>0.04666228571197815</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>86</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1991122808.22147</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1349509685.131871</v>
+        <v>1327460940.69659</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1414318695481347</v>
+        <v>0.1299770188603026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04336153852881579</v>
+        <v>0.04161432525677707</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>674754869.8702877</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4020641295.135992</v>
+        <v>5192535158.978928</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1065183007654722</v>
+        <v>0.08577293594942363</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04982190469064615</v>
+        <v>0.06017652963785478</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>104</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2010320702.826277</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2793521410.906227</v>
+        <v>3705332720.013424</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1748999840203864</v>
+        <v>0.13172553216391</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03092721633968787</v>
+        <v>0.02995537787955366</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1396760752.104525</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4809405890.987364</v>
+        <v>3408889781.434035</v>
       </c>
       <c r="F54" t="n">
-        <v>0.110834161397638</v>
+        <v>0.1303181071591052</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0331748135483548</v>
+        <v>0.0399274482443256</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>82</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2404703073.120224</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3234096308.534954</v>
+        <v>4502296349.37248</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1394611848128104</v>
+        <v>0.2089471232767773</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02899070546824185</v>
+        <v>0.02936396890622071</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1617048095.393711</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1508039466.735786</v>
+        <v>1676059208.3643</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1638645552807769</v>
+        <v>0.1246499115300843</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04109912647049473</v>
+        <v>0.04093393455127298</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>754019774.4385012</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3087233243.501588</v>
+        <v>4400732643.105759</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1156410689380915</v>
+        <v>0.1277440928056619</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02269249249940819</v>
+        <v>0.01903477759816881</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>80</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1543616633.465725</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1207033371.13401</v>
+        <v>1809446806.599699</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1557344090694602</v>
+        <v>0.1774999123221103</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02451133317331619</v>
+        <v>0.0310326360703863</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>603516743.4287554</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3309815696.620216</v>
+        <v>4305647998.867303</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1068530678026794</v>
+        <v>0.08637947277501519</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04084047944686719</v>
+        <v>0.042634766825684</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>69</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1654907857.544084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3608776136.38326</v>
+        <v>2315088631.680147</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1791296155512446</v>
+        <v>0.1853774264445785</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02346764321740657</v>
+        <v>0.02546553560069842</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1804388202.391367</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3073344508.057811</v>
+        <v>2080371537.073767</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1470872924544436</v>
+        <v>0.1743649900681214</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02045114234688749</v>
+        <v>0.0318582270302662</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1536672227.573105</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1414336103.080342</v>
+        <v>1949551198.11681</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1780607221224815</v>
+        <v>0.178684985748076</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04361052987025481</v>
+        <v>0.03413074851072691</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>707168021.7030991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3946419611.487527</v>
+        <v>3435412181.00159</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09230456192970091</v>
+        <v>0.1034749037008835</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03177439317414658</v>
+        <v>0.030651302126573</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1973209870.528771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4235165178.243243</v>
+        <v>4566446296.511878</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1540659897609452</v>
+        <v>0.1721738955313906</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02436305771560496</v>
+        <v>0.03523641560062411</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>78</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2117582641.517385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3711686715.287775</v>
+        <v>5314863229.144798</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1128420085517843</v>
+        <v>0.1732886922964281</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02705409888181486</v>
+        <v>0.02185945593876162</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>90</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1855843393.420313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5703126268.306326</v>
+        <v>4141848686.288463</v>
       </c>
       <c r="F66" t="n">
-        <v>0.133735582502448</v>
+        <v>0.1188313861682749</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03805281344701038</v>
+        <v>0.03696452419207946</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>73</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2851563198.95434</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3421663016.042033</v>
+        <v>2868765230.527778</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08024743261036563</v>
+        <v>0.09997321788288063</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04204981784720327</v>
+        <v>0.03733936216725577</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1710831490.58517</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4817561387.443599</v>
+        <v>4255954346.876878</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09858242382858066</v>
+        <v>0.1395785501810012</v>
       </c>
       <c r="G68" t="n">
-        <v>0.035036630811486</v>
+        <v>0.0461879283750754</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>81</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2408780739.046315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2357836904.408018</v>
+        <v>1592554316.968953</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1407777261531183</v>
+        <v>0.1500109975830375</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05551777380606189</v>
+        <v>0.04531242333673261</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1178918503.405259</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2984194420.639493</v>
+        <v>3593632543.153879</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07829816081623789</v>
+        <v>0.08365061521195469</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03264436377076238</v>
+        <v>0.03307382113641164</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>72</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1492097186.234663</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5537623509.437005</v>
+        <v>5049797271.187997</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1385982147217086</v>
+        <v>0.1852335824638887</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02963241874686336</v>
+        <v>0.03167071030583061</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>92</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2768811900.529958</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2176564936.385023</v>
+        <v>2105224213.973333</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1079885518460661</v>
+        <v>0.06982913578760322</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05199347979209882</v>
+        <v>0.04846551980219811</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1088282386.021945</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2220704177.831409</v>
+        <v>2944969381.087701</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07473648594630479</v>
+        <v>0.1072447860625455</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03466910308658086</v>
+        <v>0.0433365835896306</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>97</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1110352156.255433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3766729456.462554</v>
+        <v>3616360151.943289</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1721873248768476</v>
+        <v>0.1259290752870044</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02723480435255402</v>
+        <v>0.03500643360430876</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>86</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1883364727.35128</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2457084980.827258</v>
+        <v>1616736879.478224</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1079654212532618</v>
+        <v>0.12794576842948</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03135193815306668</v>
+        <v>0.03264700680801658</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1228542411.709047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4586673467.886878</v>
+        <v>3748797707.587982</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1229992051031025</v>
+        <v>0.09160023344463288</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02730132104063336</v>
+        <v>0.02859555242234061</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2293336743.268738</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1874745696.803987</v>
+        <v>1753759801.38702</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1487076279139939</v>
+        <v>0.1378796116330937</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02902420068531415</v>
+        <v>0.02820551742908947</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>937372891.3870407</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3490058748.406872</v>
+        <v>3819011431.699965</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09238970482051249</v>
+        <v>0.1370538795985656</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04923813487256179</v>
+        <v>0.04534251431944571</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>87</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1745029376.416789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1491674106.832894</v>
+        <v>1772468097.875962</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1581267046380974</v>
+        <v>0.1271145613004303</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02955272954884628</v>
+        <v>0.04069467037833709</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>745837086.1806449</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3828344651.409589</v>
+        <v>5117349603.983404</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0785054249381525</v>
+        <v>0.09068552521487111</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02381690932989636</v>
+        <v>0.02756105894466122</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>53</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1914172316.624094</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4972619569.303521</v>
+        <v>4247464767.311562</v>
       </c>
       <c r="F81" t="n">
-        <v>0.090779120696554</v>
+        <v>0.08291915447751362</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03251548040460914</v>
+        <v>0.0229362801630758</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2486309783.980815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5073886827.277583</v>
+        <v>5170498924.281186</v>
       </c>
       <c r="F82" t="n">
-        <v>0.132431920372424</v>
+        <v>0.13712560689781</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01956070728598991</v>
+        <v>0.02088329170811794</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2536943393.470896</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2001843141.609636</v>
+        <v>1657892165.131115</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1536543720871066</v>
+        <v>0.1421999918464911</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04451257520754765</v>
+        <v>0.03604966468357125</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1000921556.370393</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1831205565.639956</v>
+        <v>2399095550.214671</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1092603859662824</v>
+        <v>0.08460319657281434</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03935130431414761</v>
+        <v>0.05197246315018243</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>915602812.5786939</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3374687800.715203</v>
+        <v>2634705706.928134</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1819238067724867</v>
+        <v>0.1449741131538629</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05164393396593795</v>
+        <v>0.04751908065850183</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>95</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1687344001.88337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2147446537.161934</v>
+        <v>2637414445.745764</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1420333797168605</v>
+        <v>0.1250805299104421</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02455426469147361</v>
+        <v>0.01878125623937068</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1073723316.709328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>962233006.5961927</v>
+        <v>1244884917.312617</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1770876143738719</v>
+        <v>0.1491440323296548</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03480343091216388</v>
+        <v>0.04311536011933222</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>481116497.9394307</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3670696948.144261</v>
+        <v>2836632721.339704</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1103254395877588</v>
+        <v>0.1441334795009485</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03912874824832993</v>
+        <v>0.03896669547722633</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>99</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1835348570.800205</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2149701585.98045</v>
+        <v>2731352196.666751</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1521520641054701</v>
+        <v>0.1425438041635796</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04177520186528581</v>
+        <v>0.02597085991351991</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>85</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1074850893.423069</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1913235914.581552</v>
+        <v>1447842882.982701</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1250339596740459</v>
+        <v>0.1048941024128442</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04426433050137454</v>
+        <v>0.04096918916638401</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>956618011.6339645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1555414859.231953</v>
+        <v>2051339709.542284</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1464135619661312</v>
+        <v>0.1229552306903558</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04605293809505118</v>
+        <v>0.05315955976381272</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>777707461.1570129</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2213927631.205656</v>
+        <v>2613366539.483563</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08889521400561569</v>
+        <v>0.1031762720528467</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02973607556420353</v>
+        <v>0.0378344190578191</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1106963777.943477</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3650515670.111751</v>
+        <v>4684496997.658898</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1244764520163191</v>
+        <v>0.1054211897303234</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04158725576130416</v>
+        <v>0.04415702981129549</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1825257858.265441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2109480091.514985</v>
+        <v>1748808303.783139</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1574454193889795</v>
+        <v>0.1185020373209625</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03212514078335721</v>
+        <v>0.02785943607891486</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1054740058.326015</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2483354978.521341</v>
+        <v>2584104946.365026</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08728491788657224</v>
+        <v>0.09295683857348831</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04568736212734587</v>
+        <v>0.04344928232186929</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>61</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1241677526.5444</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2261102762.380807</v>
+        <v>2020063318.233507</v>
       </c>
       <c r="F96" t="n">
-        <v>0.107810747031248</v>
+        <v>0.08939405846510143</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04174801725748685</v>
+        <v>0.04649742605212261</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1130551340.288693</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4639083294.326741</v>
+        <v>4906427731.363468</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1248219553906846</v>
+        <v>0.1375794358123899</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02022116050762669</v>
+        <v>0.02530961248835542</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2319541754.925603</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3417050560.075727</v>
+        <v>3030846632.165356</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1101613894044794</v>
+        <v>0.0894759139533341</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03096410394166559</v>
+        <v>0.0226977806275504</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>67</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1708525293.014503</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2532914376.69018</v>
+        <v>2157386058.547205</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1071682219012498</v>
+        <v>0.1417040574744958</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03464419756114303</v>
+        <v>0.02491274948868248</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>79</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1266457140.453535</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4587284519.310612</v>
+        <v>3358585249.219975</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1259008805503</v>
+        <v>0.1132842413146443</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01872163953957451</v>
+        <v>0.02001580086217339</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2293642377.207056</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2525760673.283639</v>
+        <v>3167277472.321271</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1848308837065626</v>
+        <v>0.2084418948675983</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03879158087293062</v>
+        <v>0.05081335977207006</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>102</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1262880363.061373</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_252.xlsx
+++ b/output/fit_clients/fit_round_252.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2507218920.405524</v>
+        <v>2124028065.474186</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0859795271079753</v>
+        <v>0.06964268237154356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04314507223935041</v>
+        <v>0.03650920943359284</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1977814292.671885</v>
+        <v>2552397601.022615</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1598619110251375</v>
+        <v>0.1368604851437976</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03968212044975263</v>
+        <v>0.03206834568955976</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5011498664.251296</v>
+        <v>4732660486.418884</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1179954120909373</v>
+        <v>0.1315413225362155</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03137440184609829</v>
+        <v>0.03611435775554971</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2964224516.901896</v>
+        <v>3449035078.616948</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07172444508007463</v>
+        <v>0.09913375897478863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05031657103630736</v>
+        <v>0.05002756916514485</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2334361472.2626</v>
+        <v>2629838914.613467</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1368790081326096</v>
+        <v>0.1083703408157154</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05391762415387524</v>
+        <v>0.04107712187021265</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3010060157.658612</v>
+        <v>1918562447.519952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09500894700792553</v>
+        <v>0.06235388663188803</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04233452745923718</v>
+        <v>0.03194205095745506</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2901568577.083819</v>
+        <v>3267357089.111291</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1443487168677181</v>
+        <v>0.1752678702417292</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02730452658345836</v>
+        <v>0.02626042947910944</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1683156186.63542</v>
+        <v>2315943447.243068</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1754383437002506</v>
+        <v>0.1804471662024843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03403451823396549</v>
+        <v>0.03216267915892975</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4057264487.579937</v>
+        <v>4187444717.986222</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1385173043226239</v>
+        <v>0.1953558837913497</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03386299114654764</v>
+        <v>0.05148698777219041</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4164178783.440277</v>
+        <v>3900809453.48355</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1587670521218413</v>
+        <v>0.1314043799621712</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04657491418892449</v>
+        <v>0.03721642439856522</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2540174085.190065</v>
+        <v>2412999763.646097</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1935703516192715</v>
+        <v>0.135808818023447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03292390051819628</v>
+        <v>0.0506415791367402</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3658992154.440753</v>
+        <v>4830179250.895956</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06762967656140889</v>
+        <v>0.08962061903433607</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03110751054587471</v>
+        <v>0.03129949737569212</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2928244551.600633</v>
+        <v>2407896344.642452</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1549681815020712</v>
+        <v>0.1140288380063618</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03547800029788788</v>
+        <v>0.03015089333081259</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1183001406.503034</v>
+        <v>1721844146.957417</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0806922668895183</v>
+        <v>0.07880412567378643</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04445912952301229</v>
+        <v>0.02998257524177093</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1906747365.270581</v>
+        <v>2224465899.636718</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07578767904761938</v>
+        <v>0.1164683763986554</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0332509570415919</v>
+        <v>0.03988257830395153</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5248101910.11236</v>
+        <v>3392921429.811016</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1653310190652558</v>
+        <v>0.1472335903778228</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03853129731086151</v>
+        <v>0.04574729297525604</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3109703186.618246</v>
+        <v>3652074078.736259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1398035001095712</v>
+        <v>0.152852144942093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02908931148378053</v>
+        <v>0.03208177777944754</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>957528411.4266497</v>
+        <v>865461245.8019087</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1369875696857817</v>
+        <v>0.1545507918306427</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01705758895462888</v>
+        <v>0.0270016779796792</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2533995429.114645</v>
+        <v>2340103865.62726</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1513443703176759</v>
+        <v>0.1324435588363577</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03018463495636556</v>
+        <v>0.02752761031184171</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1901586313.156556</v>
+        <v>2637675985.864949</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06945664132195618</v>
+        <v>0.08714342989318155</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03441146720502591</v>
+        <v>0.04364620879361714</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3003960047.51325</v>
+        <v>2840691816.503638</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1362652220470701</v>
+        <v>0.0974894834656985</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05263401770504712</v>
+        <v>0.04631007348266625</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1166261933.968685</v>
+        <v>1488992123.387475</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1623277757244418</v>
+        <v>0.1285665736167137</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03682103263958379</v>
+        <v>0.05121904960376706</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2939733020.163205</v>
+        <v>2578773961.932329</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1458914874512425</v>
+        <v>0.1022789423449068</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02697095188953114</v>
+        <v>0.02472140386814964</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1157564483.189671</v>
+        <v>940287223.3121531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07558922153613896</v>
+        <v>0.07512059947238517</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02956505617167943</v>
+        <v>0.02035688460951656</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1368725143.350977</v>
+        <v>1044844875.328039</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1246276437996174</v>
+        <v>0.1052988366561535</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03874337203750084</v>
+        <v>0.03004703453867122</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4550318774.323334</v>
+        <v>2974236887.002945</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1148551539329562</v>
+        <v>0.1276463745095433</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01747595937125603</v>
+        <v>0.02576279710034431</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3549314310.383331</v>
+        <v>3021487344.546634</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1474058945025541</v>
+        <v>0.1286088762477021</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03573905307195314</v>
+        <v>0.04942556215196659</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4849738920.542514</v>
+        <v>5547802544.868175</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09602839957596739</v>
+        <v>0.1472301406085813</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03353456498117593</v>
+        <v>0.03511630323519813</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1842544570.738525</v>
+        <v>1895310638.880293</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1188345252895139</v>
+        <v>0.09475627233342102</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03657620618914633</v>
+        <v>0.0291761654598196</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1079991869.800447</v>
+        <v>1501379185.807831</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1081700083878795</v>
+        <v>0.1019819386112727</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03194202838548783</v>
+        <v>0.04965255958315227</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1478528629.986954</v>
+        <v>1315377781.007175</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1103812590913249</v>
+        <v>0.1087327599841306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02985479529205196</v>
+        <v>0.0306809234180662</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2229236963.660652</v>
+        <v>2637921047.069736</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1282904806900095</v>
+        <v>0.1312352367192452</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0591426961637566</v>
+        <v>0.03923356290050286</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1191408682.97146</v>
+        <v>1481127519.944407</v>
       </c>
       <c r="F34" t="n">
-        <v>0.12191697771697</v>
+        <v>0.1159546714423393</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02640024561852694</v>
+        <v>0.02730328440065834</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1334033694.520112</v>
+        <v>1366122768.096823</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07259793510738743</v>
+        <v>0.1041307301400913</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03470073289435326</v>
+        <v>0.0425840325797539</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2099339082.014283</v>
+        <v>2990937365.364833</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1312678715599242</v>
+        <v>0.1284081892775673</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01974564315792812</v>
+        <v>0.02821952906267625</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2016091144.276162</v>
+        <v>2193330490.609351</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07657919563093801</v>
+        <v>0.1029305837383623</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03606003561279984</v>
+        <v>0.04047881744723372</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1594430251.139464</v>
+        <v>2040246553.45975</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08907045245582039</v>
+        <v>0.0828171370984097</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02922760654414146</v>
+        <v>0.03068006127059804</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1483639166.898546</v>
+        <v>1354167760.03925</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1306546864060765</v>
+        <v>0.1458155841546205</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03209478914018921</v>
+        <v>0.03050749499337112</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1535248931.27311</v>
+        <v>1349584912.880373</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1572191078368839</v>
+        <v>0.1362637357531195</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0379077659859627</v>
+        <v>0.05920355578362311</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2701099495.128438</v>
+        <v>2549677965.968938</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1544601536425786</v>
+        <v>0.149096250563343</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03345353324139824</v>
+        <v>0.03501236354977818</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3830654159.578761</v>
+        <v>2850233706.563202</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0790571834050325</v>
+        <v>0.08975897114596645</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04383570397990893</v>
+        <v>0.03869896107953179</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2712886081.232652</v>
+        <v>1913463457.412047</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1968217309403071</v>
+        <v>0.1508418368215293</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02145877640509315</v>
+        <v>0.02434145446089874</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2219442416.2251</v>
+        <v>1977876523.912733</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06616877326284393</v>
+        <v>0.07744045373933259</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02368158830142192</v>
+        <v>0.03619083936637267</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2037060813.383329</v>
+        <v>1981879855.924526</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1410328505721455</v>
+        <v>0.1765686975219279</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04846871364876596</v>
+        <v>0.04206183068706632</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5562663428.381014</v>
+        <v>4190359988.203577</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1576759893639842</v>
+        <v>0.1580837687886401</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04868691705579277</v>
+        <v>0.04859408627733952</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3147697971.397591</v>
+        <v>4446665889.648273</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1377118331141549</v>
+        <v>0.1392840143372084</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05519556834209009</v>
+        <v>0.05688784163272347</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3312270848.531222</v>
+        <v>3435142852.021766</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1086876673767809</v>
+        <v>0.1021325305089671</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03196831199428129</v>
+        <v>0.02409320434842777</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1777984475.044862</v>
+        <v>1784370396.15387</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1889171844911545</v>
+        <v>0.1650012159926818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03058523416325393</v>
+        <v>0.03448138368881772</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3456901080.407016</v>
+        <v>2697972197.339678</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1357847194329254</v>
+        <v>0.1689397033674279</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04666228571197815</v>
+        <v>0.04588263310902709</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1327460940.69659</v>
+        <v>1543134035.325972</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1299770188603026</v>
+        <v>0.1215489379607115</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04161432525677707</v>
+        <v>0.04180074814852153</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5192535158.978928</v>
+        <v>5082605711.321191</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08577293594942363</v>
+        <v>0.1017479182787714</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06017652963785478</v>
+        <v>0.04400814525551205</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3705332720.013424</v>
+        <v>3315291937.295564</v>
       </c>
       <c r="F53" t="n">
-        <v>0.13172553216391</v>
+        <v>0.1680337893789722</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02995537787955366</v>
+        <v>0.0215971477708773</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3408889781.434035</v>
+        <v>3497864894.263901</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1303181071591052</v>
+        <v>0.1498065518348887</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0399274482443256</v>
+        <v>0.03676091419453752</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4502296349.37248</v>
+        <v>3022213770.238496</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2089471232767773</v>
+        <v>0.1707548890886868</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02936396890622071</v>
+        <v>0.03086104031370111</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1676059208.3643</v>
+        <v>1359992124.420024</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1246499115300843</v>
+        <v>0.1454122566896629</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04093393455127298</v>
+        <v>0.03985106193961787</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4400732643.105759</v>
+        <v>3812219125.026629</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1277440928056619</v>
+        <v>0.1514088912391211</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01903477759816881</v>
+        <v>0.02071007240052297</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1809446806.599699</v>
+        <v>1289468031.475193</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1774999123221103</v>
+        <v>0.1617548888732841</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0310326360703863</v>
+        <v>0.03937274461106562</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4305647998.867303</v>
+        <v>5309155916.720441</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08637947277501519</v>
+        <v>0.08136876907297887</v>
       </c>
       <c r="G59" t="n">
-        <v>0.042634766825684</v>
+        <v>0.04839390073756498</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2315088631.680147</v>
+        <v>2666522951.316294</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1853774264445785</v>
+        <v>0.1573608555743888</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02546553560069842</v>
+        <v>0.0215020620041719</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2080371537.073767</v>
+        <v>3313120886.110928</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1743649900681214</v>
+        <v>0.1119875577947417</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0318582270302662</v>
+        <v>0.02038948538908663</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1949551198.11681</v>
+        <v>2043269660.702401</v>
       </c>
       <c r="F62" t="n">
-        <v>0.178684985748076</v>
+        <v>0.1205209867279479</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03413074851072691</v>
+        <v>0.03976778384774406</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3435412181.00159</v>
+        <v>4600971746.806723</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1034749037008835</v>
+        <v>0.09418737867205247</v>
       </c>
       <c r="G63" t="n">
-        <v>0.030651302126573</v>
+        <v>0.03554787267090788</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4566446296.511878</v>
+        <v>5061600348.881274</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1721738955313906</v>
+        <v>0.1436572445662722</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03523641560062411</v>
+        <v>0.03451272902727543</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5314863229.144798</v>
+        <v>4922444397.647152</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1732886922964281</v>
+        <v>0.1613539415379382</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02185945593876162</v>
+        <v>0.02919575628315669</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4141848686.288463</v>
+        <v>4963445043.949511</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1188313861682749</v>
+        <v>0.1138493139550922</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03696452419207946</v>
+        <v>0.04992080906291783</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2868765230.527778</v>
+        <v>3384077097.873221</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09997321788288063</v>
+        <v>0.07406664905713853</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03733936216725577</v>
+        <v>0.03644351652481303</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4255954346.876878</v>
+        <v>3882016378.407703</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1395785501810012</v>
+        <v>0.1054380280303686</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0461879283750754</v>
+        <v>0.03444898021284861</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1592554316.968953</v>
+        <v>1956437791.235837</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1500109975830375</v>
+        <v>0.1205950850349355</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04531242333673261</v>
+        <v>0.05151021189916784</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3593632543.153879</v>
+        <v>2792521347.468555</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08365061521195469</v>
+        <v>0.09877790230262744</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03307382113641164</v>
+        <v>0.03774106726419402</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5049797271.187997</v>
+        <v>4799960265.944098</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1852335824638887</v>
+        <v>0.1593999375467474</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03167071030583061</v>
+        <v>0.02411343321542481</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2105224213.973333</v>
+        <v>2047424549.834985</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06982913578760322</v>
+        <v>0.06548089006396376</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04846551980219811</v>
+        <v>0.03726740369382085</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2944969381.087701</v>
+        <v>2531457861.205482</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1072447860625455</v>
+        <v>0.07988853238821665</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0433365835896306</v>
+        <v>0.03906416834738749</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3616360151.943289</v>
+        <v>2622294715.465754</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1259290752870044</v>
+        <v>0.1582460164152148</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03500643360430876</v>
+        <v>0.02604050641892784</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1616736879.478224</v>
+        <v>1581487161.783534</v>
       </c>
       <c r="F75" t="n">
-        <v>0.12794576842948</v>
+        <v>0.1332539509372245</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03264700680801658</v>
+        <v>0.03688433008914122</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3748797707.587982</v>
+        <v>5189187382.43521</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09160023344463288</v>
+        <v>0.07686260805812928</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02859555242234061</v>
+        <v>0.0301322523801738</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1753759801.38702</v>
+        <v>1661872357.034507</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1378796116330937</v>
+        <v>0.1186106707988318</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02820551742908947</v>
+        <v>0.02433050899125506</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3819011431.699965</v>
+        <v>3303545425.266192</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1370538795985656</v>
+        <v>0.1129799775158277</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04534251431944571</v>
+        <v>0.05205696494159323</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1772468097.875962</v>
+        <v>1557426217.4392</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1271145613004303</v>
+        <v>0.128550442723015</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04069467037833709</v>
+        <v>0.03769669476833549</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5117349603.983404</v>
+        <v>4370411233.393306</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09068552521487111</v>
+        <v>0.07774277952237077</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02756105894466122</v>
+        <v>0.03056792077232269</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4247464767.311562</v>
+        <v>3798987023.789093</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08291915447751362</v>
+        <v>0.1325674643536408</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0229362801630758</v>
+        <v>0.02665622229699318</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5170498924.281186</v>
+        <v>5246438907.602871</v>
       </c>
       <c r="F82" t="n">
-        <v>0.13712560689781</v>
+        <v>0.1689335111244042</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02088329170811794</v>
+        <v>0.01841072998058057</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1657892165.131115</v>
+        <v>1751985318.517362</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1421999918464911</v>
+        <v>0.1128235797949722</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03604966468357125</v>
+        <v>0.03679507426703282</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2399095550.214671</v>
+        <v>1987417296.249551</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08460319657281434</v>
+        <v>0.09087159588887858</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05197246315018243</v>
+        <v>0.04812677453893015</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2634705706.928134</v>
+        <v>2686253577.919847</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1449741131538629</v>
+        <v>0.1169445351619424</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04751908065850183</v>
+        <v>0.03963069698243828</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2637414445.745764</v>
+        <v>2471618207.973432</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1250805299104421</v>
+        <v>0.1404252685069196</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01878125623937068</v>
+        <v>0.0255757923712149</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1244884917.312617</v>
+        <v>1332256327.571301</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1491440323296548</v>
+        <v>0.1574803302808188</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04311536011933222</v>
+        <v>0.0284091410407413</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2836632721.339704</v>
+        <v>3378546583.567107</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1441334795009485</v>
+        <v>0.1319572533415786</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03896669547722633</v>
+        <v>0.03102788197265167</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2731352196.666751</v>
+        <v>3436580824.619729</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1425438041635796</v>
+        <v>0.1360551245449239</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02597085991351991</v>
+        <v>0.0364882335007817</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1447842882.982701</v>
+        <v>2045959554.359337</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1048941024128442</v>
+        <v>0.0886431781797596</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04096918916638401</v>
+        <v>0.04313230100314161</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2051339709.542284</v>
+        <v>1600426364.188778</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1229552306903558</v>
+        <v>0.1488415336957321</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05315955976381272</v>
+        <v>0.05698674894783948</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2613366539.483563</v>
+        <v>2424813297.249351</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1031762720528467</v>
+        <v>0.0689582442393145</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0378344190578191</v>
+        <v>0.04326895795245807</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4684496997.658898</v>
+        <v>3943773738.973538</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1054211897303234</v>
+        <v>0.1284628206241453</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04415702981129549</v>
+        <v>0.03643579445376646</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1748808303.783139</v>
+        <v>1546091640.378416</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1185020373209625</v>
+        <v>0.1283568361727365</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02785943607891486</v>
+        <v>0.04153038702681205</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2584104946.365026</v>
+        <v>3168690539.783174</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09295683857348831</v>
+        <v>0.1032937407311399</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04344928232186929</v>
+        <v>0.05092887417115213</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2020063318.233507</v>
+        <v>2380752519.46827</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08939405846510143</v>
+        <v>0.09372898005632731</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04649742605212261</v>
+        <v>0.04712998609294144</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4906427731.363468</v>
+        <v>5187904228.603312</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1375794358123899</v>
+        <v>0.1482460993906652</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02530961248835542</v>
+        <v>0.01955957670257205</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3030846632.165356</v>
+        <v>2428260792.131699</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0894759139533341</v>
+        <v>0.1146086328406155</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0226977806275504</v>
+        <v>0.02408750226981974</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2157386058.547205</v>
+        <v>2452984320.351664</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1417040574744958</v>
+        <v>0.1169131022191725</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02491274948868248</v>
+        <v>0.0271640825230016</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3358585249.219975</v>
+        <v>3321423493.343682</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1132842413146443</v>
+        <v>0.1254760298878589</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02001580086217339</v>
+        <v>0.02080091768779527</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3167277472.321271</v>
+        <v>2316876257.882185</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2084418948675983</v>
+        <v>0.144601317481458</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05081335977207006</v>
+        <v>0.05483847947049656</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_252.xlsx
+++ b/output/fit_clients/fit_round_252.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2124028065.474186</v>
+        <v>2238680836.908404</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06964268237154356</v>
+        <v>0.1042577122344996</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03650920943359284</v>
+        <v>0.03578233836989943</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2552397601.022615</v>
+        <v>2452921191.245444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1368604851437976</v>
+        <v>0.1717998727998847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03206834568955976</v>
+        <v>0.03967643453011942</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4732660486.418884</v>
+        <v>3859127517.32889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1315413225362155</v>
+        <v>0.1467067370676893</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03611435775554971</v>
+        <v>0.0246776047952668</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>136</v>
+      </c>
+      <c r="J4" t="n">
+        <v>251</v>
+      </c>
+      <c r="K4" t="n">
+        <v>98.44513151621388</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3449035078.616948</v>
+        <v>3346503268.441572</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09913375897478863</v>
+        <v>0.07008667076258214</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05002756916514485</v>
+        <v>0.03689823059950096</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>103</v>
+      </c>
+      <c r="J5" t="n">
+        <v>250</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2629838914.613467</v>
+        <v>2219809980.965799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1083703408157154</v>
+        <v>0.1038295936295285</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04107712187021265</v>
+        <v>0.05275053014628368</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1918562447.519952</v>
+        <v>2462861599.293973</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06235388663188803</v>
+        <v>0.09189837562135154</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03194205095745506</v>
+        <v>0.03508944471560585</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3267357089.111291</v>
+        <v>2928437785.425922</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1752678702417292</v>
+        <v>0.1959825750687814</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02626042947910944</v>
+        <v>0.02947673460521932</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2315943447.243068</v>
+        <v>2186614768.085083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1804471662024843</v>
+        <v>0.1319170024525205</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03216267915892975</v>
+        <v>0.02726979784901642</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4187444717.986222</v>
+        <v>3700791665.398554</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1953558837913497</v>
+        <v>0.149972760592801</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05148698777219041</v>
+        <v>0.04027013323241744</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>229</v>
+      </c>
+      <c r="J10" t="n">
+        <v>251</v>
+      </c>
+      <c r="K10" t="n">
+        <v>97.26078609813173</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3900809453.48355</v>
+        <v>3008689111.625045</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1314043799621712</v>
+        <v>0.1476783084113641</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03721642439856522</v>
+        <v>0.049705190111526</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>103</v>
+      </c>
+      <c r="J11" t="n">
+        <v>249</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2412999763.646097</v>
+        <v>3020822085.347948</v>
       </c>
       <c r="F12" t="n">
-        <v>0.135808818023447</v>
+        <v>0.1367393340147327</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0506415791367402</v>
+        <v>0.03859552839941829</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4830179250.895956</v>
+        <v>4653582972.923478</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08962061903433607</v>
+        <v>0.09094691541569316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03129949737569212</v>
+        <v>0.02723100683764611</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>128</v>
+      </c>
+      <c r="J13" t="n">
+        <v>251</v>
+      </c>
+      <c r="K13" t="n">
+        <v>101.19302050211</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2407896344.642452</v>
+        <v>3000604089.302176</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1140288380063618</v>
+        <v>0.1329316142334431</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03015089333081259</v>
+        <v>0.02689700192909177</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="n">
+        <v>250</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1721844146.957417</v>
+        <v>1564912388.160319</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07880412567378643</v>
+        <v>0.09489248996614892</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02998257524177093</v>
+        <v>0.03835033905115934</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2224465899.636718</v>
+        <v>2780383509.529036</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1164683763986554</v>
+        <v>0.08618638597883402</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03988257830395153</v>
+        <v>0.04568691378046608</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3392921429.811016</v>
+        <v>3817457378.137953</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1472335903778228</v>
+        <v>0.1470488695421839</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04574729297525604</v>
+        <v>0.04410398423085985</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>121</v>
+      </c>
+      <c r="J17" t="n">
+        <v>252</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3652074078.736259</v>
+        <v>2675883849.940004</v>
       </c>
       <c r="F18" t="n">
-        <v>0.152852144942093</v>
+        <v>0.1327156855332549</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03208177777944754</v>
+        <v>0.02738348425395392</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>63</v>
+      </c>
+      <c r="J18" t="n">
+        <v>250</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>865461245.8019087</v>
+        <v>999992533.9306015</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1545507918306427</v>
+        <v>0.1589610374542035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0270016779796792</v>
+        <v>0.02216809182618738</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2340103865.62726</v>
+        <v>2140907593.049023</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1324435588363577</v>
+        <v>0.1494400547536529</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02752761031184171</v>
+        <v>0.02701418879727548</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2637675985.864949</v>
+        <v>2067827385.48155</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08714342989318155</v>
+        <v>0.1021117651882527</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04364620879361714</v>
+        <v>0.03420910283814985</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2840691816.503638</v>
+        <v>3663303735.383471</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0974894834656985</v>
+        <v>0.1447830239100091</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04631007348266625</v>
+        <v>0.04417926358706956</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>65</v>
+      </c>
+      <c r="J22" t="n">
+        <v>252</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1488992123.387475</v>
+        <v>1463681403.056135</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1285665736167137</v>
+        <v>0.13104945624116</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05121904960376706</v>
+        <v>0.05249273038819891</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2578773961.932329</v>
+        <v>3174813775.664698</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1022789423449068</v>
+        <v>0.1486564202087459</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02472140386814964</v>
+        <v>0.02413931533246075</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>246</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>940287223.3121531</v>
+        <v>1329581093.162289</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07512059947238517</v>
+        <v>0.1213530954624391</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02035688460951656</v>
+        <v>0.02224843291921172</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1044844875.328039</v>
+        <v>1318615830.463839</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1052988366561535</v>
+        <v>0.08392750582809305</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03004703453867122</v>
+        <v>0.03328887306743986</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2974236887.002945</v>
+        <v>3638187585.157475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1276463745095433</v>
+        <v>0.1398391495730513</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02576279710034431</v>
+        <v>0.0257923377537068</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>102</v>
+      </c>
+      <c r="J27" t="n">
+        <v>251</v>
+      </c>
+      <c r="K27" t="n">
+        <v>80.90312247869485</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3021487344.546634</v>
+        <v>3033668118.955749</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1286088762477021</v>
+        <v>0.1419386973495423</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04942556215196659</v>
+        <v>0.03027302140139235</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5547802544.868175</v>
+        <v>4963588209.647064</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1472301406085813</v>
+        <v>0.1342148467799759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03511630323519813</v>
+        <v>0.03498386269184005</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>240</v>
+      </c>
+      <c r="J29" t="n">
+        <v>252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>108.1553429195625</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1895310638.880293</v>
+        <v>1675576826.139509</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09475627233342102</v>
+        <v>0.09904959261054319</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0291761654598196</v>
+        <v>0.03550869416695995</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1501379185.807831</v>
+        <v>1157305758.347012</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1019819386112727</v>
+        <v>0.08296051662561076</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04965255958315227</v>
+        <v>0.04070610713739899</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1315377781.007175</v>
+        <v>1753076624.993947</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1087327599841306</v>
+        <v>0.1155388301849908</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0306809234180662</v>
+        <v>0.02507183303376101</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2637921047.069736</v>
+        <v>2635561168.152269</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1312352367192452</v>
+        <v>0.127742686924633</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03923356290050286</v>
+        <v>0.05167441998975724</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1481127519.944407</v>
+        <v>954429156.0136541</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1159546714423393</v>
+        <v>0.08513192130042112</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02730328440065834</v>
+        <v>0.02315540326558687</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1366122768.096823</v>
+        <v>986906177.0314606</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1041307301400913</v>
+        <v>0.08428343795206993</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0425840325797539</v>
+        <v>0.03124209717912755</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2990937365.364833</v>
+        <v>3095132326.788807</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1284081892775673</v>
+        <v>0.1386156396614814</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02821952906267625</v>
+        <v>0.02044667725424128</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2193330490.609351</v>
+        <v>2533957191.391917</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1029305837383623</v>
+        <v>0.0758016025079168</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04047881744723372</v>
+        <v>0.02918983785685542</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2040246553.45975</v>
+        <v>1626935876.279169</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0828171370984097</v>
+        <v>0.105886592484514</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03068006127059804</v>
+        <v>0.034877550832074</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1354167760.03925</v>
+        <v>1611355557.338403</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1458155841546205</v>
+        <v>0.1371776125941688</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03050749499337112</v>
+        <v>0.02241752825386446</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1349584912.880373</v>
+        <v>1386409379.422715</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1362637357531195</v>
+        <v>0.1461943995656503</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05920355578362311</v>
+        <v>0.05266791613037418</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2549677965.968938</v>
+        <v>2596554519.863381</v>
       </c>
       <c r="F41" t="n">
-        <v>0.149096250563343</v>
+        <v>0.1474954969607939</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03501236354977818</v>
+        <v>0.02972419646674443</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2850233706.563202</v>
+        <v>3759317822.414941</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08975897114596645</v>
+        <v>0.1010044492470583</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03869896107953179</v>
+        <v>0.0410067935108169</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>104</v>
+      </c>
+      <c r="J42" t="n">
+        <v>252</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1913463457.412047</v>
+        <v>2564622653.720661</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1508418368215293</v>
+        <v>0.1287374513123279</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02434145446089874</v>
+        <v>0.01668068736369487</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1977876523.912733</v>
+        <v>2108470462.347805</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07744045373933259</v>
+        <v>0.07933433261284072</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03619083936637267</v>
+        <v>0.03304955815782383</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1981879855.924526</v>
+        <v>2032760814.267791</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1765686975219279</v>
+        <v>0.1370038577313419</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04206183068706632</v>
+        <v>0.05593053769775885</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4190359988.203577</v>
+        <v>4245912332.198355</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1580837687886401</v>
+        <v>0.1591778179737332</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04859408627733952</v>
+        <v>0.05047821833010196</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>145</v>
+      </c>
+      <c r="J46" t="n">
+        <v>252</v>
+      </c>
+      <c r="K46" t="n">
+        <v>102.5990545515423</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4446665889.648273</v>
+        <v>3417467929.243036</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1392840143372084</v>
+        <v>0.1418283005680067</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05688784163272347</v>
+        <v>0.05631022335589262</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>113</v>
+      </c>
+      <c r="J47" t="n">
+        <v>252</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3435142852.021766</v>
+        <v>4356033377.114128</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1021325305089671</v>
+        <v>0.09277218297956107</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02409320434842777</v>
+        <v>0.02522496739168327</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>125</v>
+      </c>
+      <c r="J48" t="n">
+        <v>252</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1784370396.15387</v>
+        <v>1861373680.817618</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1650012159926818</v>
+        <v>0.1387978620410398</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03448138368881772</v>
+        <v>0.0431156944032608</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2697972197.339678</v>
+        <v>3651980370.909171</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1689397033674279</v>
+        <v>0.1187890357041885</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04588263310902709</v>
+        <v>0.05146388317061494</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>82</v>
+      </c>
+      <c r="J50" t="n">
+        <v>251</v>
+      </c>
+      <c r="K50" t="n">
+        <v>94.11013572702116</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1543134035.325972</v>
+        <v>1029037611.965925</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1215489379607115</v>
+        <v>0.160278264593862</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04180074814852153</v>
+        <v>0.04342886769383415</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5082605711.321191</v>
+        <v>3811539213.39537</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1017479182787714</v>
+        <v>0.1210638671094725</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04400814525551205</v>
+        <v>0.05230331527274244</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>162</v>
+      </c>
+      <c r="J52" t="n">
+        <v>251</v>
+      </c>
+      <c r="K52" t="n">
+        <v>96.40643672761991</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3315291937.295564</v>
+        <v>3239744613.609651</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1680337893789722</v>
+        <v>0.1450491455680621</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0215971477708773</v>
+        <v>0.02977097663542866</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>34</v>
+      </c>
+      <c r="J53" t="n">
+        <v>250</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3497864894.263901</v>
+        <v>3508798741.622085</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1498065518348887</v>
+        <v>0.1224931006649007</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03676091419453752</v>
+        <v>0.0461835489498352</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>132</v>
+      </c>
+      <c r="J54" t="n">
+        <v>252</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3022213770.238496</v>
+        <v>4253486739.053916</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1707548890886868</v>
+        <v>0.1853946833967994</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03086104031370111</v>
+        <v>0.02200130907216933</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>113</v>
+      </c>
+      <c r="J55" t="n">
+        <v>251</v>
+      </c>
+      <c r="K55" t="n">
+        <v>100.8166926557917</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1359992124.420024</v>
+        <v>1231454047.656817</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1454122566896629</v>
+        <v>0.1117955300942137</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03985106193961787</v>
+        <v>0.04836265850840368</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3812219125.026629</v>
+        <v>3464957754.319996</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1514088912391211</v>
+        <v>0.1639752380831654</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02071007240052297</v>
+        <v>0.02615110730750553</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>99</v>
+      </c>
+      <c r="J57" t="n">
+        <v>252</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1289468031.475193</v>
+        <v>1237839592.164716</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1617548888732841</v>
+        <v>0.1574241340375172</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03937274461106562</v>
+        <v>0.03142331748372867</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5309155916.720441</v>
+        <v>4208144366.081744</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08136876907297887</v>
+        <v>0.1000145194878959</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04839390073756498</v>
+        <v>0.0362034208776357</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>121</v>
+      </c>
+      <c r="J59" t="n">
+        <v>252</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2666522951.316294</v>
+        <v>2530246163.727859</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1573608555743888</v>
+        <v>0.194652873330407</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0215020620041719</v>
+        <v>0.02450825976366812</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3313120886.110928</v>
+        <v>2938207085.482836</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1119875577947417</v>
+        <v>0.1529529894179988</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02038948538908663</v>
+        <v>0.02565348951107367</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2619,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2043269660.702401</v>
+        <v>1887734861.367423</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1205209867279479</v>
+        <v>0.1340700898479987</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03976778384774406</v>
+        <v>0.0314946389762665</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4600971746.806723</v>
+        <v>5522951536.818292</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09418737867205247</v>
+        <v>0.1077594539243582</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03554787267090788</v>
+        <v>0.03781529242311837</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>123</v>
+      </c>
+      <c r="J63" t="n">
+        <v>251</v>
+      </c>
+      <c r="K63" t="n">
+        <v>95.78963043295727</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5061600348.881274</v>
+        <v>3364035260.065404</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1436572445662722</v>
+        <v>0.1171285902447307</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03451272902727543</v>
+        <v>0.03047829873196477</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>124</v>
+      </c>
+      <c r="J64" t="n">
+        <v>250</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4922444397.647152</v>
+        <v>3754882744.586452</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1613539415379382</v>
+        <v>0.1473821706456446</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02919575628315669</v>
+        <v>0.02384332718821846</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>202</v>
+      </c>
+      <c r="J65" t="n">
+        <v>251</v>
+      </c>
+      <c r="K65" t="n">
+        <v>97.88615545051329</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4963445043.949511</v>
+        <v>3798670419.276723</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1138493139550922</v>
+        <v>0.145685746665353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04992080906291783</v>
+        <v>0.04933438503711705</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>124</v>
+      </c>
+      <c r="J66" t="n">
+        <v>252</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3384077097.873221</v>
+        <v>3363876150.595357</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07406664905713853</v>
+        <v>0.08916477486799571</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03644351652481303</v>
+        <v>0.03575369762939841</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3882016378.407703</v>
+        <v>5316611258.988224</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1054380280303686</v>
+        <v>0.134705061122109</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03444898021284861</v>
+        <v>0.03410903260435483</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>128</v>
+      </c>
+      <c r="J68" t="n">
+        <v>252</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1956437791.235837</v>
+        <v>2476986651.996617</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1205950850349355</v>
+        <v>0.138494849153997</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05151021189916784</v>
+        <v>0.05232229284556611</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2792521347.468555</v>
+        <v>2447747814.587701</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09877790230262744</v>
+        <v>0.0969896332014787</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03774106726419402</v>
+        <v>0.03434115211151302</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4799960265.944098</v>
+        <v>5180451233.539679</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1593999375467474</v>
+        <v>0.1844441674817408</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02411343321542481</v>
+        <v>0.03041027705924548</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>190</v>
+      </c>
+      <c r="J71" t="n">
+        <v>252</v>
+      </c>
+      <c r="K71" t="n">
+        <v>103.5630478847365</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2047424549.834985</v>
+        <v>2109562869.95465</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06548089006396376</v>
+        <v>0.08291713190318392</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03726740369382085</v>
+        <v>0.03393534318516991</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2531457861.205482</v>
+        <v>3542166480.934546</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07988853238821665</v>
+        <v>0.09052914166578321</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03906416834738749</v>
+        <v>0.04182921358419588</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>15</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2622294715.465754</v>
+        <v>2998519487.753864</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1582460164152148</v>
+        <v>0.1541790522794176</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02604050641892784</v>
+        <v>0.02508543925297724</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>72</v>
+      </c>
+      <c r="J74" t="n">
+        <v>251</v>
+      </c>
+      <c r="K74" t="n">
+        <v>66.74938000130831</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1581487161.783534</v>
+        <v>2045480378.874044</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1332539509372245</v>
+        <v>0.1378628795275029</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03688433008914122</v>
+        <v>0.03687734733817477</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3117,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5189187382.43521</v>
+        <v>4275172661.917741</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07686260805812928</v>
+        <v>0.0991067008877264</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0301322523801738</v>
+        <v>0.03408349809499292</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>117</v>
+      </c>
+      <c r="J76" t="n">
+        <v>252</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1661872357.034507</v>
+        <v>1889859349.868085</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1186106707988318</v>
+        <v>0.1376538348997386</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02433050899125506</v>
+        <v>0.02851176410327409</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3303545425.266192</v>
+        <v>4627773869.920965</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1129799775158277</v>
+        <v>0.08727396375491622</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05205696494159323</v>
+        <v>0.03754089588726231</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>125</v>
+      </c>
+      <c r="J78" t="n">
+        <v>252</v>
+      </c>
+      <c r="K78" t="n">
+        <v>102.1652769434383</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1557426217.4392</v>
+        <v>1513746888.735694</v>
       </c>
       <c r="F79" t="n">
-        <v>0.128550442723015</v>
+        <v>0.1646111593359624</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03769669476833549</v>
+        <v>0.02717758359071063</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4370411233.393306</v>
+        <v>5582015962.627451</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07774277952237077</v>
+        <v>0.0917661840456461</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03056792077232269</v>
+        <v>0.02680810104834138</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>123</v>
+      </c>
+      <c r="J80" t="n">
+        <v>251</v>
+      </c>
+      <c r="K80" t="n">
+        <v>75.9434017723807</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3798987023.789093</v>
+        <v>3242505901.158554</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1325674643536408</v>
+        <v>0.08716417144263051</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02665622229699318</v>
+        <v>0.02959211236538177</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>115</v>
+      </c>
+      <c r="J81" t="n">
+        <v>249</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5246438907.602871</v>
+        <v>5577458031.99294</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1689335111244042</v>
+        <v>0.1408234671086271</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01841072998058057</v>
+        <v>0.0260722329067572</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>191</v>
+      </c>
+      <c r="J82" t="n">
+        <v>252</v>
+      </c>
+      <c r="K82" t="n">
+        <v>102.7512118068061</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1751985318.517362</v>
+        <v>1634240229.463386</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1128235797949722</v>
+        <v>0.1063820330635992</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03679507426703282</v>
+        <v>0.03357297546229449</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1987417296.249551</v>
+        <v>2029857332.293874</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09087159588887858</v>
+        <v>0.08412417501182409</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04812677453893015</v>
+        <v>0.05175338213315928</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2686253577.919847</v>
+        <v>2759495586.780787</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1169445351619424</v>
+        <v>0.1279086391432589</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03963069698243828</v>
+        <v>0.04708702005812932</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="n">
+        <v>59.53363184207092</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2471618207.973432</v>
+        <v>2171748250.838109</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1404252685069196</v>
+        <v>0.1327268627425243</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0255757923712149</v>
+        <v>0.01799853239850873</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1332256327.571301</v>
+        <v>1068166508.610005</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1574803302808188</v>
+        <v>0.1189586983333144</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0284091410407413</v>
+        <v>0.03185474495480922</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3378546583.567107</v>
+        <v>2726387969.614392</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1319572533415786</v>
+        <v>0.1440227843264186</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03102788197265167</v>
+        <v>0.02561782921547906</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>37</v>
+      </c>
+      <c r="J88" t="n">
+        <v>251</v>
+      </c>
+      <c r="K88" t="n">
+        <v>54.38529763605523</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3436580824.619729</v>
+        <v>2361290547.582019</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1360551245449239</v>
+        <v>0.1541269476274202</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0364882335007817</v>
+        <v>0.03356435599293149</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2045959554.359337</v>
+        <v>1415228156.223858</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0886431781797596</v>
+        <v>0.1308859517460782</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04313230100314161</v>
+        <v>0.04191560801135764</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1600426364.188778</v>
+        <v>1725919462.886632</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1488415336957321</v>
+        <v>0.1212069240717203</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05698674894783948</v>
+        <v>0.03874149528108006</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2424813297.249351</v>
+        <v>2293235002.536482</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0689582442393145</v>
+        <v>0.08526833781631644</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04326895795245807</v>
+        <v>0.04134015340179008</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3943773738.973538</v>
+        <v>4365605440.382996</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1284628206241453</v>
+        <v>0.1031507359547214</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03643579445376646</v>
+        <v>0.04707030352312315</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>111</v>
+      </c>
+      <c r="J93" t="n">
+        <v>252</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1546091640.378416</v>
+        <v>1835601530.375775</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1283568361727365</v>
+        <v>0.1225432239637534</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04153038702681205</v>
+        <v>0.03008682600801029</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3168690539.783174</v>
+        <v>1994585339.955516</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1032937407311399</v>
+        <v>0.1170883828284363</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05092887417115213</v>
+        <v>0.04757559653711206</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2380752519.46827</v>
+        <v>1982795023.44759</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09372898005632731</v>
+        <v>0.1407951838273082</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04712998609294144</v>
+        <v>0.03139225135511936</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5187904228.603312</v>
+        <v>4919420974.934683</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1482460993906652</v>
+        <v>0.1758856008721416</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01955957670257205</v>
+        <v>0.02568883628141873</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>123</v>
+      </c>
+      <c r="J97" t="n">
+        <v>251</v>
+      </c>
+      <c r="K97" t="n">
+        <v>102.1479462624366</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2428260792.131699</v>
+        <v>2738435266.109692</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1146086328406155</v>
+        <v>0.09843879638921318</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02408750226981974</v>
+        <v>0.02755668338067942</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>61</v>
+      </c>
+      <c r="J98" t="n">
+        <v>247</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2452984320.351664</v>
+        <v>3417760866.502872</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1169131022191725</v>
+        <v>0.1330373202638428</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0271640825230016</v>
+        <v>0.03266851479331313</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3321423493.343682</v>
+        <v>4728926080.00769</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1254760298878589</v>
+        <v>0.1491135246946735</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02080091768779527</v>
+        <v>0.01760963704868349</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>105</v>
+      </c>
+      <c r="J100" t="n">
+        <v>252</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2316876257.882185</v>
+        <v>2612290778.894983</v>
       </c>
       <c r="F101" t="n">
-        <v>0.144601317481458</v>
+        <v>0.1941785189215046</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05483847947049656</v>
+        <v>0.0379578128567343</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="n">
+        <v>52.58775850353577</v>
       </c>
     </row>
   </sheetData>
